--- a/data/trans_orig/Q64A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>85.07675511980081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92.88325329747707</v>
+        <v>92.8832532974771</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>60.75429657762603</v>
@@ -693,7 +693,7 @@
         <v>72.9354897788846</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>81.30715682491358</v>
+        <v>81.30715682491356</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>71.7887138939799</v>
+        <v>71.48935043414095</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>84.87746653972042</v>
+        <v>84.37365205236271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73.56450014849959</v>
+        <v>74.35842447234513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77.33861520757756</v>
+        <v>76.7291275611898</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>50.6015612225308</v>
+        <v>50.00338731029832</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>58.46308325998677</v>
+        <v>57.76716632752764</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>52.39023157953998</v>
+        <v>52.91165376513031</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>57.94386041824905</v>
+        <v>56.40282423261958</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>65.3957795383749</v>
+        <v>64.92970790107429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75.64549198596816</v>
+        <v>75.82636461550622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65.66358616252526</v>
+        <v>65.89596547915035</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>69.95053263879265</v>
+        <v>70.88728791289559</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>99.87075146084605</v>
+        <v>99.16462291914907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>109.7905348795075</v>
+        <v>111.578039624787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97.92049760341702</v>
+        <v>97.76728502998813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113.1759754038543</v>
+        <v>114.8009302161732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>73.71678076745492</v>
+        <v>72.9329022587261</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>81.28003640795343</v>
+        <v>80.45819129676327</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>70.58896831630889</v>
+        <v>69.5990008732651</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>83.58079870557792</v>
+        <v>83.13892620907873</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>82.68173099106613</v>
+        <v>83.10395063039874</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93.47663302996855</v>
+        <v>93.02300761298204</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80.56686720616422</v>
+        <v>79.78324597345926</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>93.07732399915361</v>
+        <v>93.81845160962638</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>83.9697636773524</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>95.33729223566453</v>
+        <v>95.33729223566455</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>87.00566207340334</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>85.73892560535947</v>
+        <v>85.83613485641678</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>107.9734889426824</v>
+        <v>109.451742734088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93.30595458534413</v>
+        <v>93.35751121606525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101.0440476592991</v>
+        <v>102.0717607196123</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>62.84977082165205</v>
+        <v>62.570623072931</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>65.14177294748225</v>
+        <v>65.49637695522854</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>73.0957968200405</v>
+        <v>73.08394799127369</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>86.31593093734669</v>
+        <v>86.50370057055257</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>80.78787247755359</v>
+        <v>80.90727225901816</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93.92602600726177</v>
+        <v>93.82680939230914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88.44306517843984</v>
+        <v>88.27458779752777</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>97.66438038105483</v>
+        <v>98.0239438581862</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>101.0575236572282</v>
+        <v>101.3004773419213</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>130.466954497608</v>
+        <v>131.6811569370216</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>114.0683785604261</v>
+        <v>114.6362359197348</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>123.1786537262881</v>
+        <v>124.6726147226205</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>83.52921529772071</v>
+        <v>84.64807538944203</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>87.42155653406799</v>
+        <v>87.62997935145793</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>98.16653971857581</v>
+        <v>96.17104130914333</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>105.2710072742775</v>
+        <v>105.5389613510019</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>93.88651803581</v>
+        <v>94.70427852314084</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>110.3680924734442</v>
+        <v>110.278639781109</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104.4993612141352</v>
+        <v>103.721205250773</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>112.7988392435006</v>
+        <v>112.8913693049225</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>124.6287927591423</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>140.6201630240796</v>
+        <v>140.6201630240795</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>111.2860772992899</v>
+        <v>111.0129217663433</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>125.0970313331068</v>
+        <v>125.3988465961254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126.3341877508915</v>
+        <v>126.7988072477391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147.3802674736676</v>
+        <v>146.3391419581597</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>60.01525702450441</v>
+        <v>60.83896371254848</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>72.7034635997765</v>
+        <v>73.0488693884158</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>93.97994896124281</v>
+        <v>94.18815866940879</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>109.6949320602999</v>
+        <v>110.0032177772763</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>96.70663286217449</v>
+        <v>96.60492343185634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106.8417665428168</v>
+        <v>107.0559039787369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116.2930186829505</v>
+        <v>116.6570178279229</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>133.5099088629325</v>
+        <v>133.7691167228999</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>127.7817825169818</v>
+        <v>127.8992760156999</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>148.4826005961894</v>
+        <v>147.751249848184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>148.1249308854345</v>
+        <v>149.5011235485898</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168.9220743432444</v>
+        <v>168.6197937114895</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>78.20408117487952</v>
+        <v>78.72996744570685</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>93.05767965784466</v>
+        <v>92.74028269054136</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>116.5457346078283</v>
+        <v>117.0933545702666</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>126.7237561167225</v>
+        <v>127.1487692787527</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>109.6724912300949</v>
+        <v>108.8973901442404</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124.4079269559908</v>
+        <v>124.299067672956</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132.646303634205</v>
+        <v>133.8080896256934</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>148.1319550825252</v>
+        <v>148.2281413536777</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>129.0560043582587</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>138.3781611304809</v>
+        <v>138.378161130481</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>100.9015366986347</v>
+        <v>102.1763626451241</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>128.1169720989396</v>
+        <v>128.4895284227029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117.2625959665003</v>
+        <v>118.5398768113667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130.6776890406829</v>
+        <v>130.489472793443</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>83.72231110504161</v>
+        <v>83.17236888231821</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>109.6286994926953</v>
+        <v>111.6867335691636</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>107.976726857097</v>
+        <v>108.6383782371475</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>124.3878859854056</v>
+        <v>124.3395328711294</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>98.63030786051456</v>
+        <v>98.86725533850597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125.8631363474887</v>
+        <v>126.289912370467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>118.8083686411831</v>
+        <v>118.6649148448762</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>129.874746946767</v>
+        <v>130.4130906904053</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>126.4541154206221</v>
+        <v>126.8140654935294</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>159.5601218488891</v>
+        <v>160.5410077170899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>149.1899000648865</v>
+        <v>147.091001725478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>153.9867848749099</v>
+        <v>153.4805014561812</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>114.1441962014529</v>
+        <v>114.9523251357026</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>145.0875736578784</v>
+        <v>145.7770865551877</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>142.4469967710336</v>
+        <v>141.6933998472583</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>143.540889881954</v>
+        <v>143.6381614586198</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>118.6257346869923</v>
+        <v>118.6511974860022</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>149.4924781705788</v>
+        <v>149.987831253634</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>140.5457810030927</v>
+        <v>141.286484369002</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>145.4023661284402</v>
+        <v>146.0261668595354</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>99.98398469035956</v>
+        <v>100.4558562903953</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>119.3570389209839</v>
+        <v>119.6367031016678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110.9067631306913</v>
+        <v>110.413813972862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128.8181482683146</v>
+        <v>128.366485410501</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>66.77717441539053</v>
+        <v>67.85539211668232</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>79.82982138672537</v>
+        <v>79.76866406898721</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>85.72078643653715</v>
+        <v>85.52287984955279</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>107.3368017102658</v>
+        <v>107.7670114543589</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>90.02978887754419</v>
+        <v>90.26595461071255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104.743135484365</v>
+        <v>104.3163717688702</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101.3534900595675</v>
+        <v>101.3296780440662</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>120.8520435042277</v>
+        <v>120.8816617503272</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>109.7560793165075</v>
+        <v>109.8191874216624</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>132.0619574173551</v>
+        <v>132.3127177949943</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122.4936406435765</v>
+        <v>122.2970706532598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140.7099091049623</v>
+        <v>140.9857780637208</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>78.13843036571616</v>
+        <v>79.00246752901189</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>92.57500660736942</v>
+        <v>91.91723389391345</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>97.30949838171341</v>
+        <v>96.90424642262212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>117.2510694114656</v>
+        <v>117.2211748687561</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>97.50314791455619</v>
+        <v>97.972793749804</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114.8150408058351</v>
+        <v>114.1044292532718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109.9931561325467</v>
+        <v>110.1213700920479</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>129.1281729569066</v>
+        <v>128.9227121417821</v>
       </c>
     </row>
     <row r="19">
